--- a/biology/Botanique/Hexalobus_monopetalus/Hexalobus_monopetalus.xlsx
+++ b/biology/Botanique/Hexalobus_monopetalus/Hexalobus_monopetalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexalobus monopetalus est une espèce de plantes d'Afrique de la famille des Annonaceae et du genre Hexalobus.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 septembre 2017)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Hexalobus monopetalus var. monopetalus
 variété Hexalobus monopetalus var. obovatus Brenan
 variété Hexalobus monopetalus var. parvifolius Baker f.</t>
@@ -544,11 +558,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fruits sont comestibles et ses fleurs sont mellifères. Les feuilles sont consommées par le bétail[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fruits sont comestibles et ses fleurs sont mellifères. Les feuilles sont consommées par le bétail.
 Au Nord Cameroun, le bois connaît de nombreuses utilisations. C'est un matériau de construction apprécié, car il résiste aux insectes. Il est également utilisé comme brosse à dents.
-Portée autour du cou, l'écorce tressée est réputée protéger des problèmes oculaires et digestifs. À l'état brut, elle fournit des liens[3].
+Portée autour du cou, l'écorce tressée est réputée protéger des problèmes oculaires et digestifs. À l'état brut, elle fournit des liens.
 </t>
         </is>
       </c>
